--- a/data/output.xlsx
+++ b/data/output.xlsx
@@ -6,13 +6,14 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Solution" r:id="rId3" sheetId="1"/>
+    <sheet name="Routes" r:id="rId3" sheetId="1"/>
+    <sheet name="Solution details" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="24">
   <si>
     <t>TruckID</t>
   </si>
@@ -23,6 +24,12 @@
     <t>Seq</t>
   </si>
   <si>
+    <t>Pick up</t>
+  </si>
+  <si>
+    <t>Drop off</t>
+  </si>
+  <si>
     <t>Request</t>
   </si>
   <si>
@@ -32,46 +39,52 @@
     <t>Delivery</t>
   </si>
   <si>
-    <t>T001</t>
+    <t>T002</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>00007</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>00006</t>
+  </si>
+  <si>
+    <t>00004</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>T003</t>
   </si>
   <si>
     <t>002</t>
   </si>
   <si>
+    <t>00001</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>00002</t>
+  </si>
+  <si>
     <t>00003</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>001</t>
-  </si>
-  <si>
-    <t>00015</t>
-  </si>
-  <si>
-    <t>00008</t>
-  </si>
-  <si>
-    <t>00011</t>
-  </si>
-  <si>
-    <t>003</t>
-  </si>
-  <si>
-    <t>005</t>
-  </si>
-  <si>
-    <t>004</t>
-  </si>
-  <si>
-    <t>T002</t>
-  </si>
-  <si>
-    <t>00006</t>
-  </si>
-  <si>
-    <t>00013</t>
+    <t>T004</t>
   </si>
 </sst>
 </file>
@@ -116,7 +129,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -138,168 +151,419 @@
       <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="0">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="D2" t="s" s="0">
-        <v>8</v>
+      <c r="D2" t="n" s="0">
+        <v>221.0</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>30.0</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>9</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="D3" t="s" s="0">
-        <v>11</v>
+      <c r="D3" t="n" s="0">
+        <v>370.0</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>20.0</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>9</v>
+        <v>221.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>220.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>150.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>300.0</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>300.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s" s="0">
         <v>6</v>
       </c>
+      <c r="F1" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>221.0</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>220.0</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>8</v>
+      </c>
       <c r="B4" t="s" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>50.0</v>
+        <v>150.0</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="E5" t="n" s="0">
-        <v>27.0</v>
-      </c>
-      <c r="F5" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>221.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F6" t="n" s="0">
-        <v>30.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="D7" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="C7" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>11</v>
-      </c>
       <c r="E7" t="s" s="0">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F7" t="n" s="0">
-        <v>20.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="F8" t="n" s="0">
-        <v>27.0</v>
+        <v>19</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="F9" t="n" s="0">
-        <v>50.0</v>
+        <v>21</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -307,19 +571,19 @@
         <v>17</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E10" t="n" s="0">
-        <v>22.0</v>
+        <v>300.0</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -327,19 +591,19 @@
         <v>17</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="D11" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="E11" t="n" s="0">
-        <v>18.0</v>
-      </c>
-      <c r="F11" t="s" s="0">
-        <v>9</v>
+      <c r="E11" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>100.0</v>
       </c>
     </row>
     <row r="12">
@@ -347,19 +611,19 @@
         <v>17</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F12" t="n" s="0">
-        <v>22.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="13">
@@ -367,19 +631,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F13" t="n" s="0">
-        <v>18.0</v>
+        <v>300.0</v>
       </c>
     </row>
   </sheetData>
